--- a/teams/vsa/teams/sitewide-content/editorial-calendar/2023 editorial calendar.xlsx
+++ b/teams/vsa/teams/sitewide-content/editorial-calendar/2023 editorial calendar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/randiwork/Documents/Randi Work Documents/Editorial calendar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B303054A-35E2-AB40-88CB-0944825086B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15ADFFAF-2A63-3C45-B654-5A5BAA3995B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="760" windowWidth="27300" windowHeight="17060" activeTab="11" xr2:uid="{CE6E3DEA-664C-074A-9BF0-9837B581EE1E}"/>
+    <workbookView xWindow="1660" yWindow="1000" windowWidth="27300" windowHeight="17060" activeTab="11" xr2:uid="{CE6E3DEA-664C-074A-9BF0-9837B581EE1E}"/>
   </bookViews>
   <sheets>
     <sheet name="January" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="61">
   <si>
     <t>Page</t>
   </si>
@@ -110,12 +110,6 @@
     <t>Update number of days to file disability-related claims</t>
   </si>
   <si>
-    <t>VA clothing allowance</t>
-  </si>
-  <si>
-    <t>Update current clothing allowance rate once we have new year's rates</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -125,9 +119,6 @@
     <t>Post-9/11 GI Bill monthly housing allowance</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fry scholarship rates</t>
-  </si>
-  <si>
     <t xml:space="preserve">Update rates </t>
   </si>
   <si>
@@ -149,9 +140,6 @@
     <t>TOE work</t>
   </si>
   <si>
-    <t>Evidence submission work</t>
-  </si>
-  <si>
     <t>launching tool</t>
   </si>
   <si>
@@ -176,20 +164,77 @@
     <t>Ticket #</t>
   </si>
   <si>
-    <t>Tables TK</t>
-  </si>
-  <si>
     <t>Life insurance dividend payment options</t>
   </si>
   <si>
-    <t>Review alerts</t>
+    <t>Open IA ticket to update best bests</t>
+  </si>
+  <si>
+    <t>Montgomery Gi Bill Selected Reserve rates</t>
+  </si>
+  <si>
+    <t>Education: enrollment verification tool launch</t>
+  </si>
+  <si>
+    <t>Education: download decision letter tool launch</t>
+  </si>
+  <si>
+    <t>VALife page</t>
+  </si>
+  <si>
+    <t>Publish new page</t>
+  </si>
+  <si>
+    <t>Open IA ticket to update Best Bets</t>
+  </si>
+  <si>
+    <t>Fry scholarship rates</t>
+  </si>
+  <si>
+    <t>Publish future rates page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SGLI and VGLI (maybe others) </t>
+  </si>
+  <si>
+    <t>Publish info about SGLI coverage increase</t>
+  </si>
+  <si>
+    <t>WAVE being deprecated</t>
+  </si>
+  <si>
+    <t>Darla in EDU is the POC; will need to track where we mention WAVE on our pages</t>
+  </si>
+  <si>
+    <t>Mental health services</t>
+  </si>
+  <si>
+    <t>New eligibility criteria for Vet Centers</t>
+  </si>
+  <si>
+    <t>Reach out to Jessica for info on new eligibility criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Post-9/11 GI Bill (Chapter 33) rates</t>
+  </si>
+  <si>
+    <t>Publish placeholder future rates</t>
+  </si>
+  <si>
+    <t>Separation health assessment for service members</t>
+  </si>
+  <si>
+    <t>Determine if we can review the line: "This requirement started April 1, 2023."</t>
+  </si>
+  <si>
+    <t>Slack thread</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,13 +254,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -260,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -277,13 +315,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -601,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A06D29-E4C2-8747-9E9E-EFF9A3317D3C}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -612,7 +651,7 @@
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="3" width="30" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -626,15 +665,15 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>44562</v>
+        <v>44927</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -642,8 +681,12 @@
       <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
+      <c r="D2" s="12">
+        <v>50845</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
@@ -655,7 +698,9 @@
       <c r="C3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="12">
+        <v>51387</v>
+      </c>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -663,7 +708,7 @@
         <v>44927</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
@@ -673,98 +718,49 @@
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>44927</v>
+        <v>44929</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="D5" s="12">
+        <v>49327</v>
+      </c>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>44927</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
-        <v>44927</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>43</v>
-      </c>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
-        <v>44927</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://app.zenhub.com/workspaces/vft-59c95ae5fda7577a9b3184f8/issues/gh/department-of-veterans-affairs/va.gov-team/50845" xr:uid="{AF1ABA48-7529-C549-B122-8489042A228A}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://app.zenhub.com/workspaces/vft-59c95ae5fda7577a9b3184f8/issues/gh/department-of-veterans-affairs/va.gov-team/51387" xr:uid="{A89F9789-2CB4-0641-A1C7-7AA6C6F078D2}"/>
+    <hyperlink ref="D5" r:id="rId3" display="https://app.zenhub.com/workspaces/vft-59c95ae5fda7577a9b3184f8/issues/gh/department-of-veterans-affairs/va.gov-team/49327" xr:uid="{693322AE-919E-B544-A688-CFCB03E0DC11}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086EA907-A3A5-8344-8DA2-948B83679525}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -787,10 +783,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -801,7 +797,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="3"/>
@@ -814,7 +810,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -837,7 +833,7 @@
         <v>45200</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
@@ -850,7 +846,7 @@
         <v>45200</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
@@ -863,7 +859,7 @@
         <v>45200</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
@@ -876,32 +872,24 @@
         <v>45200</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
-        <v>45200</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A9" s="6"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>45200</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>45</v>
-      </c>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -921,18 +909,10 @@
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
@@ -954,12 +934,6 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -973,10 +947,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F699FB09-9189-BF4C-AA6E-AA64FCEFB81C}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -998,10 +972,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1022,32 +996,24 @@
         <v>45231</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>45231</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>43</v>
-      </c>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>45231</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>45</v>
-      </c>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1067,18 +1033,10 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
@@ -1091,12 +1049,6 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1105,164 +1057,182 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89A533F-B8D7-4B48-B18D-44DD9DDB5DA8}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="2" max="2" width="42" style="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>45261</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45261</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>45261</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>45261</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>45261</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>45261</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>45261</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>45261</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>45261</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>45291</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1282,84 +1252,57 @@
     </row>
     <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
-        <v>45291</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>21</v>
+        <v>45269</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>45261</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>45261</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>45</v>
-      </c>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="3"/>
+      <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1373,7 +1316,8 @@
     <hyperlink ref="B8" r:id="rId8" xr:uid="{46B2F867-EC6B-F54C-829C-0B353955FFBF}"/>
     <hyperlink ref="B9" r:id="rId9" xr:uid="{723E7F3C-D560-1741-B9D1-E3004E47A2C1}"/>
     <hyperlink ref="B10" r:id="rId10" xr:uid="{AAFE5C6A-D3B2-0144-932D-9997D9CCF769}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{ECF6CC49-94CE-3E41-A42E-8635B748C85B}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{D7BB6EFB-359F-6F45-91FE-21764E542D44}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{A51F912E-587D-F94B-A0D1-0A8DA8B1594B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1381,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C422FC8-6B54-6D4B-8900-8903AA840622}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1406,10 +1350,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1427,22 +1371,20 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>44958</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>44972</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>44958</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>45</v>
-      </c>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1462,18 +1404,10 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -1496,23 +1430,288 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{805042FF-16D9-524C-8A6C-B293BB97386A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14AC6503-343E-5C41-8CB8-29A48680EE92}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="30" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>44986</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>44986</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="12">
+        <v>51402</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>44624</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="12">
+        <v>50497</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>44989</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="12">
+        <v>50494</v>
+      </c>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>44989</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>45016</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="12">
+        <v>52848</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" display="https://app.zenhub.com/workspaces/vft-59c95ae5fda7577a9b3184f8/issues/gh/department-of-veterans-affairs/va.gov-team/50497" xr:uid="{3F70C164-1850-0440-BBD3-F27D03FBA4A4}"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://app.zenhub.com/workspaces/vft-59c95ae5fda7577a9b3184f8/issues/gh/department-of-veterans-affairs/va.gov-team/50494" xr:uid="{7CE9628D-F362-A24B-8C83-8CBACD9D0148}"/>
+    <hyperlink ref="D3" r:id="rId3" display="https://app.zenhub.com/workspaces/vft-59c95ae5fda7577a9b3184f8/issues/gh/department-of-veterans-affairs/va.gov-team/51402" xr:uid="{4C6405B5-6BBC-3149-B56C-74E68FAC1175}"/>
+    <hyperlink ref="D7" r:id="rId4" display="https://app.zenhub.com/workspaces/sitewide-content-accessibility-and-ia-63a1d63232beba0011a7833f/issues/gh/department-of-veterans-affairs/va.gov-team/52848" xr:uid="{94C3D273-904B-C940-976C-9448CA5B5665}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA0235C-02D5-2D46-8AC4-107DFC960D56}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="33.5" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>45017</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>45017</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{753D9164-6779-C741-BE8F-6868F333ED23}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4884E22-18F2-D641-B071-477E8EB0460D}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1534,15 +1733,15 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
-        <v>44986</v>
+        <v>45047</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
@@ -1554,23 +1753,15 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>44986</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>44986</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>45</v>
-      </c>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1583,301 +1774,19 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA0235C-02D5-2D46-8AC4-107DFC960D56}">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="2" width="33.5" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>45017</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>45017</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>45017</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
-        <v>45017</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{753D9164-6779-C741-BE8F-6868F333ED23}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4884E22-18F2-D641-B071-477E8EB0460D}">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
-        <v>45047</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>45047</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>45047</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1886,10 +1795,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F47310C-5487-3F45-ADDA-FB7EEDA919F4}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1912,10 +1821,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -1932,40 +1841,24 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>45078</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>45078</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>45</v>
-      </c>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
@@ -1984,12 +1877,6 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1998,16 +1885,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98C237B-5A88-E64A-B5AD-A02CEC7E7C0C}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
-    <col min="2" max="3" width="30" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="23.83203125" customWidth="1"/>
   </cols>
@@ -2023,10 +1911,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2044,23 +1932,27 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
-        <v>45108</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>45128</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
-        <v>45108</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="3"/>
+        <v>45128</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
@@ -2079,18 +1971,10 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -2113,23 +1997,21 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{159088A7-49FD-C04F-AAF0-4394CD6A3B3B}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{C2AF45C0-D44A-EF49-B2CD-45143AD4018C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622F1F10-C57F-544A-BDE4-3E0F688607D7}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2152,10 +2034,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2175,11 +2057,11 @@
       <c r="A3" s="6">
         <v>45139</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>26</v>
+      <c r="B3" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2189,49 +2071,45 @@
         <v>45139</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
-        <v>45139</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>45162</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>45139</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
@@ -2254,23 +2132,20 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{9E4AA8BB-6BD2-444F-8D07-3C2BA7B3162D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80402D2-8124-AD43-9941-F1716DBCCDCA}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2278,10 +2153,10 @@
     <col min="1" max="1" width="24.33203125" customWidth="1"/>
     <col min="2" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -2292,10 +2167,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -2309,50 +2184,40 @@
         <v>20</v>
       </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>45170</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>45170</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>45</v>
-      </c>
+      <c r="E3" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
@@ -2362,12 +2227,6 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
